--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/外商资本金.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/外商资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,369 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>69.38292</v>
-      </c>
-      <c r="C2" t="n">
-        <v>261.78501</v>
-      </c>
-      <c r="D2" t="n">
-        <v>65.17925</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>38.58676</v>
-      </c>
-      <c r="G2" t="n">
-        <v>289.96632</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.61658</v>
-      </c>
-      <c r="I2" t="n">
-        <v>78.05849000000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>24.13263</v>
-      </c>
-      <c r="K2" t="n">
-        <v>114.48238</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3654.6359</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20.75009</v>
-      </c>
-      <c r="N2" t="n">
-        <v>33.04034</v>
-      </c>
-      <c r="O2" t="n">
-        <v>202.95986</v>
-      </c>
-      <c r="P2" t="n">
-        <v>29.77192</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.18853</v>
-      </c>
-      <c r="R2" t="n">
-        <v>87.51661</v>
-      </c>
-      <c r="S2" t="n">
-        <v>33.27736</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>72.66575</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.29242</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6.58536</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.27812</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>152.60165</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>572.63161</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>277.71897</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>43.83727</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>20.73188</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
-        <v>132.69068</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>3.82845</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>151.46818</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>152.29268</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>218.52151</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>3.05002</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>159.54253</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>111.42829</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>147.96965</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>29.77273</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.0331</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>91.08458</v>
-      </c>
-      <c r="C3" t="n">
-        <v>292.13651</v>
-      </c>
-      <c r="D3" t="n">
-        <v>75.13437</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>43.62132</v>
-      </c>
-      <c r="G3" t="n">
-        <v>349.61088</v>
-      </c>
-      <c r="H3" t="n">
-        <v>43.75175</v>
-      </c>
-      <c r="I3" t="n">
-        <v>86.18516</v>
-      </c>
-      <c r="J3" t="n">
-        <v>29.8608</v>
-      </c>
-      <c r="K3" t="n">
-        <v>132.55729</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4194.98291</v>
-      </c>
-      <c r="M3" t="n">
-        <v>20.84742</v>
-      </c>
-      <c r="N3" t="n">
-        <v>35.04557</v>
-      </c>
-      <c r="O3" t="n">
-        <v>248.20003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>38.91295</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.44007</v>
-      </c>
-      <c r="R3" t="n">
-        <v>102.12855</v>
-      </c>
-      <c r="S3" t="n">
-        <v>38.91315</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>78.81294</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.14893</v>
-      </c>
-      <c r="W3" t="n">
-        <v>13.33107</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.37193</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>191.41593</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>662.63842</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>319.03129</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>52.09322</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>24.50708</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
-        <v>156.9225</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>4.10172</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>160.96588</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>156.40664</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>224.1691</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>2.66941</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>191.45224</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>115.80165</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>163.11631</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>44.57037</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.02588</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>96.04165999999999</v>
-      </c>
-      <c r="C4" t="n">
-        <v>340.73636</v>
-      </c>
-      <c r="D4" t="n">
-        <v>96.64176</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>66.44855</v>
-      </c>
-      <c r="G4" t="n">
-        <v>376.48151</v>
-      </c>
-      <c r="H4" t="n">
-        <v>47.80216</v>
-      </c>
-      <c r="I4" t="n">
-        <v>117.85911</v>
-      </c>
-      <c r="J4" t="n">
-        <v>34.9093</v>
-      </c>
-      <c r="K4" t="n">
-        <v>168.85578</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4946.13703</v>
-      </c>
-      <c r="M4" t="n">
-        <v>27.06169</v>
-      </c>
-      <c r="N4" t="n">
-        <v>48.56055</v>
-      </c>
-      <c r="O4" t="n">
-        <v>270.76835</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44.92369</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.36519</v>
-      </c>
-      <c r="R4" t="n">
-        <v>116.14773</v>
-      </c>
-      <c r="S4" t="n">
-        <v>37.63055</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>109.17993</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.29243</v>
-      </c>
-      <c r="W4" t="n">
-        <v>12.05407</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3.19832</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>191.91009</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>858.18547</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>354.0918</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>59.02458</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>42.26246</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>207.81294</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>15.71068</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>189.77224</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>190.60979</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>244.53817</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>3.09116</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>216.48835</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>135.43569</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>170.27564</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>49.96128</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.008</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
